--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U4U3I3I4I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U4U3I3I4I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165EE74-8D00-4E9B-8668-B6BCA6EF720A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0CF595-5D63-4EA0-BAFF-2CB7FE3E80AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4051B043-F0E5-4B96-AA99-43EA61A619A9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,11 +1646,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0190519A-A26F-4A06-BAE0-95892D295CC9}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B41"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1990,8 +1993,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2119,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2133,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2147,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>9</v>
